--- a/H17R10/release/BOM/H17R10.xlsx
+++ b/H17R10/release/BOM/H17R10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK PEICE\HEXABITZ\H17R1x\H17R10\release\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Hexabitz\H17R1x-Hardware\H17R10\release\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="160">
   <si>
     <t>Qty</t>
   </si>
@@ -102,12 +102,6 @@
     <t>R32</t>
   </si>
   <si>
-    <t>RC0603JR-0710KL</t>
-  </si>
-  <si>
-    <t>https://octopart.com/search?q=RC0603JR-0710KL&amp;start=0</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -252,15 +246,6 @@
     <t>C14, C15</t>
   </si>
   <si>
-    <t>WCAP-ASLI Aluminium Electrolytic Capacitors</t>
-  </si>
-  <si>
-    <t>EEVFK2A680Q</t>
-  </si>
-  <si>
-    <t>https://octopart.com/eevfk2a680q-panasonic-2421317?r=sp</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -282,12 +267,6 @@
     <t>Vishay</t>
   </si>
   <si>
-    <t>VLMS1300-GS08</t>
-  </si>
-  <si>
-    <t>https://octopart.com/vlms1300-gs08-vishay-21709201?r=sp&amp;s=_gcP4_q8T1SC6PJQPTQ9yA</t>
-  </si>
-  <si>
     <t>RED</t>
   </si>
   <si>
@@ -318,15 +297,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>DIODE ARRAY SCHOTTKY 30V SOT23-3</t>
-  </si>
-  <si>
-    <t>BAR43SFILM</t>
-  </si>
-  <si>
-    <t>https://octopart.com/bar43sfilm-stmicroelectronics-39549077?r=sp</t>
-  </si>
-  <si>
     <t>STMICROELECTRONICS_BAT46ZFILMSTMICROELECTRONICS_BAT46ZFILM_0_3</t>
   </si>
   <si>
@@ -468,12 +438,6 @@
     <t>https://octopart.com/c0603c104k3ractu-kemet-127541?r=sp</t>
   </si>
   <si>
-    <t>GRM188F51C224ZA01D</t>
-  </si>
-  <si>
-    <t>https://octopart.com/grm188f51c224za01d-murata-196920?r=sp</t>
-  </si>
-  <si>
     <t>C1608X5R1C474K080AA</t>
   </si>
   <si>
@@ -493,6 +457,48 @@
   </si>
   <si>
     <t>https://octopart.com/rc0805fr-0710kl-yageo-40301103?r=sp</t>
+  </si>
+  <si>
+    <t>CAP CER 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB224</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/yageo/CC0603KRX7R7BB224/311-1426-2-ND/2833591</t>
+  </si>
+  <si>
+    <t>68µF 100V Aluminum Electrolytic Capacitors Radial, Can - SMD 5000 Hrs @ 105°C</t>
+  </si>
+  <si>
+    <t>United Chemi-Con</t>
+  </si>
+  <si>
+    <t>EMVY101ARA680MKE0S</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/en/united-chemi-con/EMVY101ARA680MKE0S/565-2510-2-ND/757155</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>https://octopart.com/search?q=RC0603FR-0710KL&amp;currency=USD&amp;specs=0</t>
+  </si>
+  <si>
+    <t>Schottky Diodes &amp; Rectifiers 100mA 30 Volt</t>
+  </si>
+  <si>
+    <t>BAR43CFILM</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/STMicroelectronics/BAR43CFILM?qs=%2Fha2pyFadugPwnmvean6wNRSrvIM0lOe3sh9JEq5rAQ%3D</t>
+  </si>
+  <si>
+    <t>VLMTG1300-GS08</t>
+  </si>
+  <si>
+    <t>https://octopart.com/vlmtg1300-gs08-vishay-21709202?r=sp</t>
   </si>
 </sst>
 </file>
@@ -1329,14 +1335,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
     <col min="7" max="7" width="110.7109375" customWidth="1"/>
@@ -1347,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -1370,22 +1376,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1396,22 +1402,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1422,22 +1428,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1448,22 +1454,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1474,24 +1480,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
@@ -1506,7 +1512,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1526,22 +1532,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
@@ -1552,22 +1558,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
@@ -1578,22 +1584,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
@@ -1604,22 +1610,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1630,13 +1636,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1650,22 +1656,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1676,22 +1682,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
@@ -1702,24 +1708,24 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
@@ -1728,22 +1734,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1754,22 +1760,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1780,13 +1786,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1800,22 +1806,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="1"/>
@@ -1852,10 +1858,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -1864,10 +1870,10 @@
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1881,7 +1887,7 @@
         <v>330</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -1890,10 +1896,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1904,22 +1910,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1930,13 +1936,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1953,7 +1959,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -1988,10 +1994,10 @@
         <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2002,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
@@ -2022,10 +2028,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
@@ -2034,10 +2040,10 @@
         <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2048,22 +2054,22 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2074,22 +2080,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2100,22 +2106,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2126,22 +2132,22 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2152,22 +2158,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2277,12 +2283,16 @@
     <hyperlink ref="G30" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
     <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="G11" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId4"/>
+    <hyperlink ref="G11" r:id="rId5"/>
+    <hyperlink ref="G23" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="G26" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>